--- a/BackTest/2020-01-19 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-19 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,24 +649,21 @@
         <v>17168.57050510001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>302.1</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -714,24 +688,19 @@
         <v>13334.57050510001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>301.1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +725,21 @@
         <v>13408.57050510001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>299.4</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,22 +766,17 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>299.5</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,22 +803,17 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>300.1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -884,22 +840,17 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>299.4</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,22 +875,19 @@
         <v>10212.32521362001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -966,20 +914,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,20 +951,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1044,22 +986,19 @@
         <v>17391.38201362001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1086,20 +1025,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1126,20 +1062,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1166,20 +1099,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1206,20 +1136,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1246,20 +1173,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1286,20 +1210,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,20 +1247,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1366,20 +1284,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1406,20 +1321,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1446,20 +1358,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1486,20 +1395,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1526,20 +1432,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,20 +1469,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1606,20 +1506,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1646,20 +1543,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1686,20 +1580,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1726,20 +1617,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1766,20 +1654,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1806,20 +1691,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1846,20 +1728,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1884,22 +1763,17 @@
         <v>21210.55421362002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1924,22 +1798,15 @@
         <v>21159.91221362002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1966,20 +1833,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2006,20 +1866,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2046,20 +1899,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2086,20 +1932,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2126,20 +1965,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2166,20 +1998,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2206,18 +2031,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L46" t="n">
+        <v>1</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2244,16 +2064,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,18 +2095,15 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2314,18 +2128,15 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2350,18 +2161,15 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2386,18 +2194,15 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2422,18 +2227,15 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2458,18 +2260,15 @@
         <v>-6920.009886379986</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,18 +2293,15 @@
         <v>-6918.009886379986</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2532,16 +2328,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2568,16 +2361,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2604,16 +2394,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2640,16 +2427,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2676,16 +2460,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2712,16 +2493,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2748,16 +2526,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2784,16 +2559,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2820,16 +2592,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2856,16 +2625,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2892,16 +2658,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2928,16 +2691,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2964,16 +2724,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3000,16 +2757,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3036,16 +2790,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3072,16 +2823,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3108,16 +2856,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3144,16 +2889,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3180,16 +2922,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3216,16 +2955,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3252,16 +2988,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3288,16 +3021,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3324,16 +3054,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3360,16 +3087,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3396,16 +3120,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3432,16 +3153,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3468,16 +3186,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3504,16 +3219,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3540,16 +3252,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3576,16 +3285,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3612,16 +3318,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3648,16 +3351,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3684,16 +3384,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3720,16 +3417,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3754,22 +3448,15 @@
         <v>-15489.14658637999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3794,26 +3481,15 @@
         <v>-17147.55558637999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>305</v>
-      </c>
-      <c r="K90" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3838,26 +3514,15 @@
         <v>-14564.05578637999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>304</v>
-      </c>
-      <c r="K91" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3882,22 +3547,15 @@
         <v>-15629.93368637999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3922,26 +3580,15 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>303.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3966,26 +3613,15 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K94" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4010,26 +3646,15 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K95" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4056,22 +3681,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4098,22 +3714,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4140,22 +3747,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4182,22 +3780,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4224,22 +3813,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4264,26 +3844,15 @@
         <v>-13650.86597876999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4308,26 +3877,15 @@
         <v>-15251.37667876999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4352,26 +3910,15 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>305.1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4396,26 +3943,15 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4440,28 +3976,17 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-19 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>18838.06850510001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>18838.06850510001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>18889.05950510002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>18524.05950510002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>17263.57050510001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17263.57050510001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -651,15 +651,9 @@
       <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>302.1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,15 +682,11 @@
         <v>13334.57050510001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -725,17 +715,11 @@
         <v>13408.57050510001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>299.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,15 +748,11 @@
         <v>14290.74510510002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,15 +781,11 @@
         <v>14287.74510510002</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -838,15 +814,11 @@
         <v>14452.15141362001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -875,15 +847,11 @@
         <v>10212.32521362001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -953,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,15 +946,11 @@
         <v>17391.38201362001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1027,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1064,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1101,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1138,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1175,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1212,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1249,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1286,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1323,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1397,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1434,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1471,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1508,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1582,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1656,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1693,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1730,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1763,16 +1639,14 @@
         <v>21210.55421362002</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1798,7 +1672,7 @@
         <v>21159.91221362002</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2095,7 +1969,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2128,7 +2002,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2161,7 +2035,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2194,7 +2068,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2227,7 +2101,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2260,7 +2134,7 @@
         <v>-6920.009886379986</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2293,7 +2167,7 @@
         <v>-6918.009886379986</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2491,7 +2365,7 @@
         <v>-4203.075186379986</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2524,7 +2398,7 @@
         <v>-9065.666786379985</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2557,7 +2431,7 @@
         <v>-6792.498186379985</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2590,7 +2464,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2623,7 +2497,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2656,7 +2530,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2689,7 +2563,7 @@
         <v>-6790.498286379985</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2722,7 +2596,7 @@
         <v>-16177.95548637999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2755,7 +2629,7 @@
         <v>-17784.20748637999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2788,7 +2662,7 @@
         <v>-17782.20748637999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2821,7 +2695,7 @@
         <v>-18082.20748637999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2854,7 +2728,7 @@
         <v>-17829.20758637999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2887,7 +2761,7 @@
         <v>-9260.432986379987</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2920,7 +2794,7 @@
         <v>-11891.91718637999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2953,7 +2827,7 @@
         <v>-11889.91718637999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2986,7 +2860,7 @@
         <v>-11954.43318637999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3052,7 +2926,7 @@
         <v>-11984.43318637999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3118,7 +2992,7 @@
         <v>-13167.57738637999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3151,7 +3025,7 @@
         <v>-12255.60468637999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3184,7 +3058,7 @@
         <v>-12686.22868637999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3217,7 +3091,7 @@
         <v>-12686.22868637999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3250,7 +3124,7 @@
         <v>-12684.22868637999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3316,7 +3190,7 @@
         <v>-14403.88028637998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3877,10 +3751,14 @@
         <v>-15251.37667876999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>307.5</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3910,11 +3788,19 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3943,11 +3829,19 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3976,10 +3870,14 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>306.3</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3987,6 +3885,6 @@
       <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-19 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>18889.05950510002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>13334.57050510001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>14290.74510510002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>14287.74510510002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4203.075186379986</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-9065.666786379985</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-6792.498186379985</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6790.498286379985</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-16177.95548637999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17784.20748637999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-17782.20748637999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18082.20748637999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-17829.20758637999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-9260.432986379987</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-11891.91718637999</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-11889.91718637999</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-11954.43318637999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-11984.43318637999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-13167.57738637999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-12255.60468637999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-12686.22868637999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-12686.22868637999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-12684.22868637999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-14403.88028637998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3718,10 +3718,14 @@
         <v>-13650.86597876999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>307.5</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3759,7 +3763,11 @@
       <c r="J102" t="n">
         <v>307.5</v>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3829,19 +3837,11 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,14 +3870,10 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>306.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3885,6 +3881,6 @@
       <c r="M105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-19 BackTest PIVX.xlsx
@@ -517,7 +517,7 @@
         <v>18889.05950510002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17263.57050510001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>17168.57050510001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>36489.37261362001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>21118.44084984002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>23015.04511362001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>23271.85371362001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>23465.51721362001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5270.851113620014</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6825.831313620014</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-226.3450863799862</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-224.3450863799862</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-6920.009886379986</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-9065.666786379985</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-6790.498186379985</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-6790.498286379985</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-16177.95548637999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-17784.20748637999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-17782.20748637999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-18082.20748637999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-17829.20758637999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-9260.432986379987</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-11891.91718637999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-11889.91718637999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-11954.43318637999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-11984.43318637999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3388,10 +3388,14 @@
         <v>-14564.05578637999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>304</v>
+      </c>
+      <c r="J91" t="n">
+        <v>304</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3421,11 +3425,19 @@
         <v>-15629.93368637999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>304</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3466,19 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>304</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,10 +3507,14 @@
         <v>-15627.93368637999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>305.9</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3544,19 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="J95" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3585,19 @@
         <v>-15625.93368637999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>307</v>
+      </c>
+      <c r="J96" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3626,19 @@
         <v>-15593.56074953999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>307</v>
+      </c>
+      <c r="J97" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3745,19 @@
         <v>-13650.86597876999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>308</v>
+      </c>
+      <c r="J100" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3724,9 +3792,13 @@
         <v>307.5</v>
       </c>
       <c r="J101" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>305.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3761,11 +3833,11 @@
         <v>307.5</v>
       </c>
       <c r="J102" t="n">
-        <v>307.5</v>
+        <v>305.9</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3802,11 +3874,11 @@
         <v>305.1</v>
       </c>
       <c r="J103" t="n">
-        <v>307.5</v>
+        <v>305.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3837,11 +3909,19 @@
         <v>-15249.37667876999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +3950,19 @@
         <v>-15233.30984072999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>305.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest PIVX.xlsx
+++ b/BackTest/2020-01-19 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1510.948</v>
       </c>
       <c r="G2" t="n">
-        <v>18838.06850510001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3685</v>
       </c>
       <c r="G3" t="n">
-        <v>18838.06850510001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50.991</v>
       </c>
       <c r="G4" t="n">
-        <v>18889.05950510002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>365</v>
       </c>
       <c r="G5" t="n">
-        <v>18524.05950510002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1260.489</v>
       </c>
       <c r="G6" t="n">
-        <v>17263.57050510001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,19 @@
         <v>71.27930000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>17263.57050510001</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>302.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>302.1</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +627,21 @@
         <v>95</v>
       </c>
       <c r="G8" t="n">
-        <v>17168.57050510001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +663,21 @@
         <v>3834</v>
       </c>
       <c r="G9" t="n">
-        <v>13334.57050510001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +699,23 @@
         <v>74</v>
       </c>
       <c r="G10" t="n">
-        <v>13408.57050510001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>299.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +737,23 @@
         <v>882.1746000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>14290.74510510002</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>299.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +775,23 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>14287.74510510002</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>300.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +813,23 @@
         <v>164.40630852</v>
       </c>
       <c r="G13" t="n">
-        <v>14452.15141362001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>299.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +851,23 @@
         <v>4239.8262</v>
       </c>
       <c r="G14" t="n">
-        <v>10212.32521362001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>305</v>
+      </c>
+      <c r="I14" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +889,23 @@
         <v>1655.6442</v>
       </c>
       <c r="G15" t="n">
-        <v>8556.681013620013</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>300.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +927,23 @@
         <v>5334.701</v>
       </c>
       <c r="G16" t="n">
-        <v>13891.38201362001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="I16" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +965,23 @@
         <v>3500</v>
       </c>
       <c r="G17" t="n">
-        <v>17391.38201362001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>304.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1003,23 @@
         <v>163.9906</v>
       </c>
       <c r="G18" t="n">
-        <v>17555.37261362001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>304.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1041,23 @@
         <v>19000</v>
       </c>
       <c r="G19" t="n">
-        <v>36555.37261362001</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>305</v>
+      </c>
+      <c r="I19" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1079,21 @@
         <v>66</v>
       </c>
       <c r="G20" t="n">
-        <v>36489.37261362001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1115,21 @@
         <v>65.167</v>
       </c>
       <c r="G21" t="n">
-        <v>36554.53961362001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1151,21 @@
         <v>20779.7471</v>
       </c>
       <c r="G22" t="n">
-        <v>15774.79251362001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1187,21 @@
         <v>17.1</v>
       </c>
       <c r="G23" t="n">
-        <v>15791.89251362001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1223,21 @@
         <v>48.9</v>
       </c>
       <c r="G24" t="n">
-        <v>15791.89251362001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1259,21 @@
         <v>146.0399</v>
       </c>
       <c r="G25" t="n">
-        <v>15937.93241362001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1295,21 @@
         <v>4330.2228</v>
       </c>
       <c r="G26" t="n">
-        <v>20268.15521362001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1331,21 @@
         <v>869</v>
       </c>
       <c r="G27" t="n">
-        <v>19399.15521362001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1367,21 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>19401.15521362001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1403,21 @@
         <v>4301.5544</v>
       </c>
       <c r="G29" t="n">
-        <v>23702.70961362001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1439,21 @@
         <v>843.0447</v>
       </c>
       <c r="G30" t="n">
-        <v>22859.66491362001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1475,21 @@
         <v>212</v>
       </c>
       <c r="G31" t="n">
-        <v>23071.66491362001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1511,21 @@
         <v>85.4143</v>
       </c>
       <c r="G32" t="n">
-        <v>22986.25061362001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1547,21 @@
         <v>78.6656</v>
       </c>
       <c r="G33" t="n">
-        <v>22986.25061362001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1583,21 @@
         <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>22988.25061362001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1619,21 @@
         <v>155.5687</v>
       </c>
       <c r="G35" t="n">
-        <v>22832.68191362001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1655,21 @@
         <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>22834.68191362001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1691,21 @@
         <v>1549.8687</v>
       </c>
       <c r="G37" t="n">
-        <v>21284.81321362001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1727,21 @@
         <v>74.259</v>
       </c>
       <c r="G38" t="n">
-        <v>21210.55421362002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1763,21 @@
         <v>50.642</v>
       </c>
       <c r="G39" t="n">
-        <v>21159.91221362002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1799,21 @@
         <v>32.37293622</v>
       </c>
       <c r="G40" t="n">
-        <v>21192.28514984002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1835,21 @@
         <v>75.8443</v>
       </c>
       <c r="G41" t="n">
-        <v>21116.44084984002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1871,21 @@
         <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>21118.44084984002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1907,21 @@
         <v>1896.60426378</v>
       </c>
       <c r="G43" t="n">
-        <v>23015.04511362001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1943,21 @@
         <v>256.8086</v>
       </c>
       <c r="G44" t="n">
-        <v>23271.85371362001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1979,21 @@
         <v>193.6635</v>
       </c>
       <c r="G45" t="n">
-        <v>23465.51721362001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2015,21 @@
         <v>18194.6661</v>
       </c>
       <c r="G46" t="n">
-        <v>5270.851113620014</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2051,21 @@
         <v>1554.9802</v>
       </c>
       <c r="G47" t="n">
-        <v>6825.831313620014</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2087,21 @@
         <v>3.4288</v>
       </c>
       <c r="G48" t="n">
-        <v>6825.831313620014</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2123,21 @@
         <v>7052.1764</v>
       </c>
       <c r="G49" t="n">
-        <v>-226.3450863799862</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2159,21 @@
         <v>660.1346</v>
       </c>
       <c r="G50" t="n">
-        <v>-226.3450863799862</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2195,21 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>-224.3450863799862</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2231,21 @@
         <v>12.2783</v>
       </c>
       <c r="G52" t="n">
-        <v>-224.3450863799862</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2267,21 @@
         <v>6695.6648</v>
       </c>
       <c r="G53" t="n">
-        <v>-6920.009886379986</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2303,21 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>-6918.009886379986</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2339,21 @@
         <v>4549.1298</v>
       </c>
       <c r="G55" t="n">
-        <v>-6918.009886379986</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2375,21 @@
         <v>247.3546</v>
       </c>
       <c r="G56" t="n">
-        <v>-6918.009886379986</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2411,21 @@
         <v>705.7521</v>
       </c>
       <c r="G57" t="n">
-        <v>-6918.009886379986</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2447,21 @@
         <v>1630.3932</v>
       </c>
       <c r="G58" t="n">
-        <v>-6918.009886379986</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2483,21 @@
         <v>2714.9347</v>
       </c>
       <c r="G59" t="n">
-        <v>-4203.075186379986</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2519,21 @@
         <v>943.0818</v>
       </c>
       <c r="G60" t="n">
-        <v>-4203.075186379986</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1.036708043694141</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2555,15 @@
         <v>4862.5916</v>
       </c>
       <c r="G61" t="n">
-        <v>-9065.666786379985</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2585,15 @@
         <v>2273.1686</v>
       </c>
       <c r="G62" t="n">
-        <v>-6792.498186379985</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2615,15 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>-6790.498186379985</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2645,15 @@
         <v>2631.4842</v>
       </c>
       <c r="G64" t="n">
-        <v>-6790.498186379985</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2675,15 @@
         <v>3789.7954</v>
       </c>
       <c r="G65" t="n">
-        <v>-6790.498186379985</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2705,15 @@
         <v>0.0001</v>
       </c>
       <c r="G66" t="n">
-        <v>-6790.498286379985</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2735,15 @@
         <v>9387.457200000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-16177.95548637999</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2765,15 @@
         <v>1606.252</v>
       </c>
       <c r="G68" t="n">
-        <v>-17784.20748637999</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2795,15 @@
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>-17782.20748637999</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2825,15 @@
         <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>-18082.20748637999</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2855,15 @@
         <v>252.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>-17829.20758637999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2885,15 @@
         <v>8568.774600000001</v>
       </c>
       <c r="G72" t="n">
-        <v>-9260.432986379987</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2915,15 @@
         <v>2631.4842</v>
       </c>
       <c r="G73" t="n">
-        <v>-11891.91718637999</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2945,15 @@
         <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>-11889.91718637999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2975,15 @@
         <v>64.51600000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-11954.43318637999</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3005,15 @@
         <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>-11984.43318637999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3035,15 @@
         <v>173.3131</v>
       </c>
       <c r="G77" t="n">
-        <v>-11984.43318637999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3065,15 @@
         <v>162.268</v>
       </c>
       <c r="G78" t="n">
-        <v>-12146.70118637999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3095,15 @@
         <v>1020.8762</v>
       </c>
       <c r="G79" t="n">
-        <v>-13167.57738637999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3125,15 @@
         <v>911.9727</v>
       </c>
       <c r="G80" t="n">
-        <v>-12255.60468637999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3155,15 @@
         <v>430.624</v>
       </c>
       <c r="G81" t="n">
-        <v>-12686.22868637999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3185,15 @@
         <v>4216.3772</v>
       </c>
       <c r="G82" t="n">
-        <v>-12686.22868637999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3215,15 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>-12684.22868637999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3245,15 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>-12682.22868637999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3275,15 @@
         <v>1721.6516</v>
       </c>
       <c r="G85" t="n">
-        <v>-14403.88028637998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3305,15 @@
         <v>116.7129</v>
       </c>
       <c r="G86" t="n">
-        <v>-14403.88028637998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3335,15 @@
         <v>5847.8579</v>
       </c>
       <c r="G87" t="n">
-        <v>-20251.73818637999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3365,15 @@
         <v>1896.6043</v>
       </c>
       <c r="G88" t="n">
-        <v>-20251.73818637999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3395,15 @@
         <v>4762.5916</v>
       </c>
       <c r="G89" t="n">
-        <v>-15489.14658637999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3425,15 @@
         <v>1658.409</v>
       </c>
       <c r="G90" t="n">
-        <v>-17147.55558637999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,22 +3455,15 @@
         <v>2583.4998</v>
       </c>
       <c r="G91" t="n">
-        <v>-14564.05578637999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>304</v>
-      </c>
-      <c r="J91" t="n">
-        <v>304</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3422,26 +3485,15 @@
         <v>1065.8779</v>
       </c>
       <c r="G92" t="n">
-        <v>-15629.93368637999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>304</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3463,26 +3515,15 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-15627.93368637999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>303.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>304</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,22 +3545,15 @@
         <v>1845.2389</v>
       </c>
       <c r="G94" t="n">
-        <v>-15627.93368637999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3541,26 +3575,15 @@
         <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>-15625.93368637999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3582,26 +3605,15 @@
         <v>118.7219</v>
       </c>
       <c r="G96" t="n">
-        <v>-15625.93368637999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>307</v>
-      </c>
-      <c r="J96" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,26 +3635,15 @@
         <v>32.37293684</v>
       </c>
       <c r="G97" t="n">
-        <v>-15593.56074953999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>307</v>
-      </c>
-      <c r="J97" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3664,24 +3665,15 @@
         <v>2201.54027077</v>
       </c>
       <c r="G98" t="n">
-        <v>-13392.02047876999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3703,24 +3695,15 @@
         <v>68.21850000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-13460.23897876999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3742,26 +3725,15 @@
         <v>190.627</v>
       </c>
       <c r="G100" t="n">
-        <v>-13650.86597876999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>308</v>
-      </c>
-      <c r="J100" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3783,26 +3755,15 @@
         <v>308.123</v>
       </c>
       <c r="G101" t="n">
-        <v>-13650.86597876999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3824,26 +3785,15 @@
         <v>1600.5107</v>
       </c>
       <c r="G102" t="n">
-        <v>-15251.37667876999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3865,26 +3815,15 @@
         <v>2</v>
       </c>
       <c r="G103" t="n">
-        <v>-15249.37667876999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>305.1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3906,26 +3845,15 @@
         <v>64.4853</v>
       </c>
       <c r="G104" t="n">
-        <v>-15249.37667876999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3947,26 +3875,15 @@
         <v>16.06683804</v>
       </c>
       <c r="G105" t="n">
-        <v>-15233.30984072999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>306.3</v>
-      </c>
-      <c r="J105" t="n">
-        <v>305.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
